--- a/Inventário de Ativos Intangíveis/2024/3. Analise de Dados/3.2. Dados/RLT- Medições Ativos Intangíveis 2024-v1.0.xlsx
+++ b/Inventário de Ativos Intangíveis/2024/3. Analise de Dados/3.2. Dados/RLT- Medições Ativos Intangíveis 2024-v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Seplag\Inventário de Ativos Intangíveis\2024\3. Analise de Dados\3.2. Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A310A497-D547-4EA9-BD90-4474A96757ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D60BD4-6445-4CF2-A22E-7C8B3A1085C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Dashbords" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Mensuração!$A$1:$P$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Mensuração!$A$1:$P$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
   <si>
     <t>Itens</t>
   </si>
@@ -283,6 +283,42 @@
   </si>
   <si>
     <t>Exercício</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>Tipo SW</t>
+  </si>
+  <si>
+    <t>SITEC/SEPLAG</t>
+  </si>
+  <si>
+    <t>SW Desenv SITEC</t>
+  </si>
+  <si>
+    <t>Techne</t>
+  </si>
+  <si>
+    <t>SW Legado</t>
+  </si>
+  <si>
+    <t>AZ Informática</t>
+  </si>
+  <si>
+    <t>SEAP</t>
+  </si>
+  <si>
+    <t>Sistema Estadual de Administração de Pessoas</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>SIAG</t>
+  </si>
+  <si>
+    <t>Sistema Integrado de Aquisições Governamentais e Contratos</t>
   </si>
 </sst>
 </file>
@@ -445,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -534,6 +570,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1580,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>306457</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>363452</xdr:rowOff>
+      <xdr:rowOff>359642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1614,7 +1666,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jonathas Gomes Marques" refreshedDate="44916.659587731483" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="14" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:N31" sheet="Mensuração"/>
+    <worksheetSource ref="C7:N33" sheet="Mensuração"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Itens" numFmtId="0">
@@ -2272,10 +2324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O40"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,24 +2337,25 @@
     <col min="3" max="3" width="6.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -2320,7 +2373,7 @@
       <c r="N3" s="27"/>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -2336,15 +2389,15 @@
       <c r="N4" s="30"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="2:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>78</v>
       </c>
@@ -2387,8 +2440,14 @@
       <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>2024</v>
       </c>
@@ -2423,7 +2482,7 @@
         <f>J8*K8</f>
         <v>128578.18799999999</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="37">
         <v>0.5</v>
       </c>
       <c r="N8" s="11">
@@ -2431,8 +2490,14 @@
         <v>192867.28200000001</v>
       </c>
       <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2024</v>
       </c>
@@ -2467,7 +2532,7 @@
         <f>J9*K9</f>
         <v>470580.6</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="37">
         <v>0.5</v>
       </c>
       <c r="N9" s="11">
@@ -2475,8 +2540,14 @@
         <v>705870.89999999991</v>
       </c>
       <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>2024</v>
       </c>
@@ -2511,7 +2582,7 @@
         <f>J10*K10</f>
         <v>379295.04</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="37">
         <v>1</v>
       </c>
       <c r="N10" s="11">
@@ -2519,8 +2590,14 @@
         <v>758590.08</v>
       </c>
       <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="2:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="P10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>2024</v>
       </c>
@@ -2555,7 +2632,7 @@
         <f t="shared" ref="L11:L29" si="1">J11*K11</f>
         <v>2878679.52</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="37">
         <v>0.75</v>
       </c>
       <c r="N11" s="11">
@@ -2565,8 +2642,14 @@
       <c r="O11" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>2024</v>
       </c>
@@ -2601,7 +2684,7 @@
         <f t="shared" si="1"/>
         <v>212999.63999999998</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="37">
         <v>0.5</v>
       </c>
       <c r="N12" s="11">
@@ -2609,8 +2692,14 @@
         <v>319499.45999999996</v>
       </c>
       <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>2024</v>
       </c>
@@ -2645,7 +2734,7 @@
         <f t="shared" si="1"/>
         <v>640414.19999999995</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="37">
         <v>1</v>
       </c>
       <c r="N13" s="11">
@@ -2653,8 +2742,14 @@
         <v>1280828.3999999999</v>
       </c>
       <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>2024</v>
       </c>
@@ -2689,7 +2784,7 @@
         <f t="shared" si="1"/>
         <v>322683.83999999997</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="37">
         <v>0.25</v>
       </c>
       <c r="N14" s="11">
@@ -2697,8 +2792,14 @@
         <v>403354.79999999993</v>
       </c>
       <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>2024</v>
       </c>
@@ -2733,7 +2834,7 @@
         <f t="shared" si="1"/>
         <v>474118.8</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="37">
         <v>0.75</v>
       </c>
       <c r="N15" s="11">
@@ -2741,8 +2842,14 @@
         <v>829707.89999999991</v>
       </c>
       <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>2024</v>
       </c>
@@ -2777,7 +2884,7 @@
         <f t="shared" si="1"/>
         <v>530022.36</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="37">
         <v>1</v>
       </c>
       <c r="N16" s="11">
@@ -2785,8 +2892,14 @@
         <v>1060044.72</v>
       </c>
       <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>2024</v>
       </c>
@@ -2821,7 +2934,7 @@
         <f t="shared" si="1"/>
         <v>259703.88</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="37">
         <v>1</v>
       </c>
       <c r="N17" s="11">
@@ -2829,8 +2942,14 @@
         <v>519407.76</v>
       </c>
       <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>2024</v>
       </c>
@@ -2865,7 +2984,7 @@
         <f t="shared" si="1"/>
         <v>56611.199999999997</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="37">
         <v>1</v>
       </c>
       <c r="N18" s="11">
@@ -2873,8 +2992,14 @@
         <v>113222.39999999999</v>
       </c>
       <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>2024</v>
       </c>
@@ -2909,7 +3034,7 @@
         <f t="shared" si="1"/>
         <v>1446416.16</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="37">
         <v>1</v>
       </c>
       <c r="N19" s="11">
@@ -2919,8 +3044,14 @@
       <c r="O19" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>2024</v>
       </c>
@@ -2955,7 +3086,7 @@
         <f t="shared" si="1"/>
         <v>491809.8</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="37">
         <v>1</v>
       </c>
       <c r="N20" s="11">
@@ -2963,8 +3094,14 @@
         <v>983619.6</v>
       </c>
       <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>2024</v>
       </c>
@@ -2999,7 +3136,7 @@
         <f t="shared" si="1"/>
         <v>382833.24</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="37">
         <v>0.25</v>
       </c>
       <c r="N21" s="11">
@@ -3007,8 +3144,14 @@
         <v>478541.55</v>
       </c>
       <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>2024</v>
       </c>
@@ -3043,7 +3186,7 @@
         <f t="shared" ref="L22:L23" si="2">J22*K22</f>
         <v>237767.04000000001</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="37">
         <v>0.75</v>
       </c>
       <c r="N22" s="11">
@@ -3051,8 +3194,14 @@
         <v>416092.32</v>
       </c>
       <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>2024</v>
       </c>
@@ -3087,7 +3236,7 @@
         <f t="shared" si="2"/>
         <v>701271.24</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="37">
         <v>1</v>
       </c>
       <c r="N23" s="11">
@@ -3097,8 +3246,14 @@
       <c r="O23" s="22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>2024</v>
       </c>
@@ -3133,7 +3288,7 @@
         <f t="shared" ref="L24:L25" si="4">J24*K24</f>
         <v>765666.48</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="37">
         <v>0.25</v>
       </c>
       <c r="N24" s="11">
@@ -3141,8 +3296,14 @@
         <v>957083.1</v>
       </c>
       <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>2024</v>
       </c>
@@ -3177,7 +3338,7 @@
         <f t="shared" si="4"/>
         <v>484733.39999999997</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="37">
         <v>0.25</v>
       </c>
       <c r="N25" s="11">
@@ -3185,8 +3346,14 @@
         <v>605916.75</v>
       </c>
       <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>2024</v>
       </c>
@@ -3221,7 +3388,7 @@
         <f t="shared" si="1"/>
         <v>237059.4</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="37">
         <v>1</v>
       </c>
       <c r="N26" s="11">
@@ -3229,8 +3396,14 @@
         <v>474118.8</v>
       </c>
       <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>2024</v>
       </c>
@@ -3265,7 +3438,7 @@
         <f t="shared" ref="L27" si="6">J27*K27</f>
         <v>32551.439999999999</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="37">
         <v>0.25</v>
       </c>
       <c r="N27" s="11">
@@ -3273,8 +3446,14 @@
         <v>40689.299999999996</v>
       </c>
       <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>2024</v>
       </c>
@@ -3309,7 +3488,7 @@
         <f t="shared" si="1"/>
         <v>169833.60000000001</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="37">
         <v>0.25</v>
       </c>
       <c r="N28" s="11">
@@ -3317,8 +3496,14 @@
         <v>212292</v>
       </c>
       <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>2024</v>
       </c>
@@ -3353,7 +3538,7 @@
         <f t="shared" si="1"/>
         <v>36797.279999999999</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="37">
         <v>0.25</v>
       </c>
       <c r="N29" s="11">
@@ -3361,8 +3546,14 @@
         <v>45996.6</v>
       </c>
       <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>2024</v>
       </c>
@@ -3397,7 +3588,7 @@
         <f t="shared" ref="L30" si="8">J30*K30</f>
         <v>591587.04</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="37">
         <v>0.25</v>
       </c>
       <c r="N30" s="11">
@@ -3405,78 +3596,176 @@
         <v>739483.8</v>
       </c>
       <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="3" t="s">
+      <c r="P30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="5">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45271</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="38">
+        <v>1</v>
+      </c>
+      <c r="N31" s="36">
+        <v>96833.33</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="5">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45154</v>
+      </c>
+      <c r="J32" s="9">
+        <v>4095</v>
+      </c>
+      <c r="K32" s="10">
+        <v>705.6</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" ref="L32" si="10">J32*K32</f>
+        <v>2889432</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" ref="N32" si="11">L32+(L32*M32)</f>
+        <v>5778864</v>
+      </c>
+      <c r="O32" s="21"/>
+      <c r="P32" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="14">
-        <f>SUM(J8:J30)</f>
-        <v>16861.7</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="15">
-        <f>SUM(L8:L30)</f>
-        <v>11932013.388</v>
-      </c>
-      <c r="N31" s="15">
-        <f>SUM(N8:N30)</f>
-        <v>20470291.482000008</v>
-      </c>
-      <c r="O31" s="20"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
+      <c r="J33" s="14">
+        <f>SUM(J8:J32)</f>
+        <v>20956.7</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="15">
+        <f>SUM(L8:L32)</f>
+        <v>14821445.388</v>
+      </c>
+      <c r="N33" s="15">
+        <f>SUM(N8:N32)</f>
+        <v>26345988.812000006</v>
+      </c>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
         <v>39</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J36" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K36" s="1">
         <f ca="1">TODAY()</f>
         <v>45648</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F35" s="24" t="s">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F36" s="25" t="s">
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F38" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="E3:O4"/>
     <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
